--- a/extra_data/link_log.xlsx
+++ b/extra_data/link_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessica.dyer@leveltenenergy.com/Repositories/gbv-health-provider-study/extra_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7CC82A52-EF74-8149-8AAB-4DB582724A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E0C449D9-ECA8-C84B-9778-B2A8E643E0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10860" yWindow="500" windowWidth="28040" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="linklog" sheetId="1" r:id="rId1"/>
@@ -4039,8 +4039,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D677"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A642" workbookViewId="0">
-      <selection activeCell="C678" sqref="C678"/>
+    <sheetView tabSelected="1" topLeftCell="A533" workbookViewId="0">
+      <selection activeCell="F557" sqref="F557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4129,7 +4129,7 @@
         <v>766</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -5585,7 +5585,7 @@
         <v>933</v>
       </c>
       <c r="C110">
-        <v>66</v>
+        <v>450</v>
       </c>
       <c r="D110">
         <v>3</v>
@@ -6047,7 +6047,7 @@
         <v>965</v>
       </c>
       <c r="C143">
-        <v>82</v>
+        <v>451</v>
       </c>
       <c r="D143">
         <v>3</v>
@@ -6285,7 +6285,7 @@
         <v>700</v>
       </c>
       <c r="C160">
-        <v>91</v>
+        <v>452</v>
       </c>
       <c r="D160">
         <v>3</v>

--- a/extra_data/link_log.xlsx
+++ b/extra_data/link_log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessica.dyer@leveltenenergy.com/Repositories/gbv-health-provider-study/extra_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6D29C611-7DD5-6B41-8774-4BBA82FEEF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3F6A6D8D-0077-E543-A1DD-20F34A09B598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" r:id="rId1"/>
@@ -1386,9 +1386,6 @@
     <t>EFS181021</t>
   </si>
   <si>
-    <t>efs_NA</t>
-  </si>
-  <si>
     <t>JP181021</t>
   </si>
   <si>
@@ -1422,9 +1419,6 @@
     <t>IGS181021</t>
   </si>
   <si>
-    <t>igs_NA</t>
-  </si>
-  <si>
     <t>NMDC181021</t>
   </si>
   <si>
@@ -1512,9 +1506,6 @@
     <t>RGS221021</t>
   </si>
   <si>
-    <t>rgs_NA</t>
-  </si>
-  <si>
     <t>JSS221021</t>
   </si>
   <si>
@@ -3217,6 +3208,15 @@
   </si>
   <si>
     <t>clea_chc_letefoho</t>
+  </si>
+  <si>
+    <t>efs_hp_postu_tratamentu_fatuquero</t>
+  </si>
+  <si>
+    <t>igs_hp_postu_tratamentu_fatuquero</t>
+  </si>
+  <si>
+    <t>rgs_hp_postu_tratamentu_fatuquero</t>
   </si>
 </sst>
 </file>
@@ -4080,8 +4080,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G677"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A594" workbookViewId="0">
-      <selection activeCell="C678" sqref="C678"/>
+    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
+      <selection activeCell="B428" sqref="B428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4118,10 +4118,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B2" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4141,10 +4141,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B3" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -4210,10 +4210,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B6" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -4233,10 +4233,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B7" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -4256,10 +4256,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B8" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -4328,7 +4328,7 @@
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B18" t="s">
         <v>443</v>
@@ -4532,7 +4532,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B20" t="s">
         <v>437</v>
@@ -4555,7 +4555,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B21" t="s">
         <v>437</v>
@@ -4578,10 +4578,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>453</v>
+      </c>
+      <c r="B22" t="s">
         <v>454</v>
-      </c>
-      <c r="B22" t="s">
-        <v>455</v>
       </c>
       <c r="C22">
         <v>15</v>
@@ -4601,10 +4601,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B23" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C23">
         <v>15</v>
@@ -4624,10 +4624,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B24" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C24">
         <v>17</v>
@@ -4670,10 +4670,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="B26" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C26">
         <v>19</v>
@@ -4693,10 +4693,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B27" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="C27">
         <v>20</v>
@@ -4739,10 +4739,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B29" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C29">
         <v>22</v>
@@ -4762,10 +4762,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B30" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C30">
         <v>23</v>
@@ -4831,10 +4831,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B33" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C33">
         <v>25</v>
@@ -5084,10 +5084,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>459</v>
+      </c>
+      <c r="B44" t="s">
         <v>460</v>
-      </c>
-      <c r="B44" t="s">
-        <v>461</v>
       </c>
       <c r="C44">
         <v>32</v>
@@ -5107,10 +5107,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B45" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C45">
         <v>32</v>
@@ -5291,10 +5291,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B53" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C53">
         <v>36</v>
@@ -5314,10 +5314,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B54" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C54">
         <v>36</v>
@@ -5337,10 +5337,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B55" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C55">
         <v>37</v>
@@ -5498,10 +5498,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B62" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C62">
         <v>41</v>
@@ -5521,10 +5521,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B63" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C63">
         <v>42</v>
@@ -5636,10 +5636,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B68" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C68">
         <v>46</v>
@@ -5659,10 +5659,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B69" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C69">
         <v>47</v>
@@ -5728,10 +5728,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>457</v>
+      </c>
+      <c r="B72" t="s">
         <v>458</v>
-      </c>
-      <c r="B72" t="s">
-        <v>459</v>
       </c>
       <c r="C72">
         <v>50</v>
@@ -5751,10 +5751,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B73" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C73">
         <v>50</v>
@@ -5774,10 +5774,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B74" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C74">
         <v>51</v>
@@ -5889,10 +5889,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B79" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C79">
         <v>55</v>
@@ -5958,10 +5958,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="B82" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="C82">
         <v>57</v>
@@ -6027,10 +6027,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="B85" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C85">
         <v>59</v>
@@ -6050,10 +6050,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B86" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C86">
         <v>60</v>
@@ -6165,10 +6165,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B91" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C91">
         <v>62</v>
@@ -6234,7 +6234,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B94" t="s">
         <v>86</v>
@@ -6257,10 +6257,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B95" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C95">
         <v>64</v>
@@ -6510,7 +6510,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B106" t="s">
         <v>70</v>
@@ -6533,10 +6533,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B107" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C107">
         <v>70</v>
@@ -6602,10 +6602,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B110" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C110">
         <v>71</v>
@@ -6625,10 +6625,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="B111" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C111">
         <v>72</v>
@@ -6694,10 +6694,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B114" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C114">
         <v>75</v>
@@ -6763,7 +6763,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B117" t="s">
         <v>78</v>
@@ -6789,7 +6789,7 @@
         <v>48</v>
       </c>
       <c r="B118" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C118">
         <v>77</v>
@@ -6855,10 +6855,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="B121" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C121">
         <v>78</v>
@@ -6970,10 +6970,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B126" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C126">
         <v>81</v>
@@ -7154,7 +7154,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B134" t="s">
         <v>121</v>
@@ -7177,10 +7177,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B135" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C135">
         <v>88</v>
@@ -7246,7 +7246,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B138" t="s">
         <v>123</v>
@@ -7407,10 +7407,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B145" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C145">
         <v>93</v>
@@ -7568,7 +7568,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B152" t="s">
         <v>129</v>
@@ -7683,7 +7683,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B157" t="s">
         <v>131</v>
@@ -7798,10 +7798,10 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B162" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C162">
         <v>100</v>
@@ -8005,7 +8005,7 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B171" t="s">
         <v>143</v>
@@ -8074,10 +8074,10 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B174" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C174">
         <v>106</v>
@@ -8123,7 +8123,7 @@
         <v>17</v>
       </c>
       <c r="B176" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C176">
         <v>108</v>
@@ -8189,10 +8189,10 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B179" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C179">
         <v>110</v>
@@ -8258,10 +8258,10 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B182" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C182">
         <v>112</v>
@@ -8350,10 +8350,10 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B186" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C186">
         <v>115</v>
@@ -8396,10 +8396,10 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B188" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C188">
         <v>117</v>
@@ -8465,7 +8465,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B191" t="s">
         <v>155</v>
@@ -8534,7 +8534,7 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B194" t="s">
         <v>179</v>
@@ -8557,10 +8557,10 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B195" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C195">
         <v>121</v>
@@ -8580,10 +8580,10 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B196" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C196">
         <v>122</v>
@@ -8672,10 +8672,10 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B200" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C200">
         <v>129</v>
@@ -8836,7 +8836,7 @@
         <v>264</v>
       </c>
       <c r="B207" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="C207">
         <v>135</v>
@@ -8902,10 +8902,10 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B210" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C210">
         <v>137</v>
@@ -8948,10 +8948,10 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B212" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C212">
         <v>139</v>
@@ -9017,10 +9017,10 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="B215" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="C215">
         <v>141</v>
@@ -9086,7 +9086,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B218" t="s">
         <v>195</v>
@@ -9132,7 +9132,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="B220" t="s">
         <v>239</v>
@@ -9178,10 +9178,10 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B222" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="C222">
         <v>144</v>
@@ -9339,10 +9339,10 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B229" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C229">
         <v>147</v>
@@ -9454,10 +9454,10 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B234" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C234">
         <v>150</v>
@@ -9500,7 +9500,7 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B236" t="s">
         <v>241</v>
@@ -9569,7 +9569,7 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B239" t="s">
         <v>214</v>
@@ -9592,10 +9592,10 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="B240" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C240">
         <v>154</v>
@@ -9615,10 +9615,10 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B241" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C241">
         <v>155</v>
@@ -9730,10 +9730,10 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B246" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C246">
         <v>157</v>
@@ -9753,10 +9753,10 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B247" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="C247">
         <v>158</v>
@@ -9799,7 +9799,7 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="B249" t="s">
         <v>220</v>
@@ -9822,10 +9822,10 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="B250" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C250">
         <v>160</v>
@@ -9868,7 +9868,7 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="B252" t="s">
         <v>222</v>
@@ -10006,10 +10006,10 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="B258" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="C258">
         <v>164</v>
@@ -10075,10 +10075,10 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B261" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C261">
         <v>166</v>
@@ -10236,10 +10236,10 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B268" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C268">
         <v>172</v>
@@ -10259,10 +10259,10 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B269" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C269">
         <v>172</v>
@@ -10282,10 +10282,10 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B270" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C270">
         <v>173</v>
@@ -10719,7 +10719,7 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B289" t="s">
         <v>272</v>
@@ -10811,10 +10811,10 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B293" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C293">
         <v>184</v>
@@ -10834,10 +10834,10 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B294" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C294">
         <v>185</v>
@@ -11018,10 +11018,10 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B302" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C302">
         <v>190</v>
@@ -11041,10 +11041,10 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B303" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C303">
         <v>191</v>
@@ -11156,7 +11156,7 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B308" t="s">
         <v>285</v>
@@ -11317,10 +11317,10 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B315" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C315">
         <v>196</v>
@@ -11386,10 +11386,10 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B318" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C318">
         <v>198</v>
@@ -11616,7 +11616,7 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B328" t="s">
         <v>297</v>
@@ -11685,7 +11685,7 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B331" t="s">
         <v>323</v>
@@ -11777,7 +11777,7 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B335" t="s">
         <v>338</v>
@@ -11938,10 +11938,10 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B342" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C342">
         <v>210</v>
@@ -12099,10 +12099,10 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="B349" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C349">
         <v>215</v>
@@ -12145,10 +12145,10 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B351" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C351">
         <v>217</v>
@@ -12168,10 +12168,10 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B352" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C352">
         <v>218</v>
@@ -12191,10 +12191,10 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B353" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C353">
         <v>219</v>
@@ -12237,7 +12237,7 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B355" t="s">
         <v>346</v>
@@ -12352,10 +12352,10 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B360" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C360">
         <v>225</v>
@@ -12444,10 +12444,10 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B364" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C364">
         <v>230</v>
@@ -12467,10 +12467,10 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B365" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C365">
         <v>230</v>
@@ -12490,10 +12490,10 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B366" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C366">
         <v>231</v>
@@ -12536,10 +12536,10 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B368" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C368">
         <v>233</v>
@@ -12559,10 +12559,10 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B369" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C369">
         <v>234</v>
@@ -12605,10 +12605,10 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B371" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C371">
         <v>236</v>
@@ -12628,10 +12628,10 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B372" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C372">
         <v>237</v>
@@ -12651,10 +12651,10 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B373" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C373">
         <v>238</v>
@@ -12697,10 +12697,10 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B375" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C375">
         <v>240</v>
@@ -12720,10 +12720,10 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B376" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C376">
         <v>240</v>
@@ -13226,7 +13226,7 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B398" t="s">
         <v>398</v>
@@ -13249,10 +13249,10 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B399" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C399">
         <v>251</v>
@@ -13364,10 +13364,10 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B404" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C404">
         <v>254</v>
@@ -13387,10 +13387,10 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B405" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C405">
         <v>255</v>
@@ -13433,7 +13433,7 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B407" t="s">
         <v>439</v>
@@ -13456,10 +13456,10 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B408" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C408">
         <v>258</v>
@@ -13479,10 +13479,10 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B409" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C409">
         <v>259</v>
@@ -13502,10 +13502,10 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B410" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C410">
         <v>260</v>
@@ -13548,7 +13548,7 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B412" t="s">
         <v>445</v>
@@ -13571,10 +13571,10 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B413" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C413">
         <v>262</v>
@@ -13597,7 +13597,7 @@
         <v>12</v>
       </c>
       <c r="B414" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C414">
         <v>263</v>
@@ -13640,7 +13640,7 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B416" t="s">
         <v>447</v>
@@ -13663,10 +13663,10 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B417" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C417">
         <v>264</v>
@@ -13689,7 +13689,7 @@
         <v>259</v>
       </c>
       <c r="B418" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C418">
         <v>265</v>
@@ -13732,7 +13732,7 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B420" t="s">
         <v>449</v>
@@ -13755,7 +13755,7 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B421" t="s">
         <v>449</v>
@@ -13801,7 +13801,7 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B423" t="s">
         <v>451</v>
@@ -13824,10 +13824,10 @@
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B424" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C424">
         <v>268</v>
@@ -13850,7 +13850,7 @@
         <v>452</v>
       </c>
       <c r="B425" t="s">
-        <v>453</v>
+        <v>1061</v>
       </c>
       <c r="C425">
         <v>269</v>
@@ -13870,10 +13870,10 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B426" t="s">
-        <v>465</v>
+        <v>1062</v>
       </c>
       <c r="C426">
         <v>270</v>
@@ -13893,10 +13893,10 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B427" t="s">
-        <v>495</v>
+        <v>1063</v>
       </c>
       <c r="C427">
         <v>271</v>
@@ -13916,10 +13916,10 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
+        <v>455</v>
+      </c>
+      <c r="B428" t="s">
         <v>456</v>
-      </c>
-      <c r="B428" t="s">
-        <v>457</v>
       </c>
       <c r="C428">
         <v>272</v>
@@ -13939,10 +13939,10 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B429" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C429">
         <v>272</v>
@@ -13962,10 +13962,10 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B430" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C430">
         <v>273</v>
@@ -13985,10 +13985,10 @@
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
+        <v>461</v>
+      </c>
+      <c r="B431" t="s">
         <v>462</v>
-      </c>
-      <c r="B431" t="s">
-        <v>463</v>
       </c>
       <c r="C431">
         <v>274</v>
@@ -14008,10 +14008,10 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B432" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C432">
         <v>274</v>
@@ -14031,10 +14031,10 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B433" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C433">
         <v>275</v>
@@ -14054,10 +14054,10 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B434" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C434">
         <v>275</v>
@@ -14077,10 +14077,10 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B435" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C435">
         <v>276</v>
@@ -14100,10 +14100,10 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B436" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C436">
         <v>276</v>
@@ -14123,10 +14123,10 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B437" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C437">
         <v>277</v>
@@ -14146,10 +14146,10 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B438" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C438">
         <v>278</v>
@@ -14169,10 +14169,10 @@
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B439" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C439">
         <v>278</v>
@@ -14192,10 +14192,10 @@
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B440" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C440">
         <v>279</v>
@@ -14215,10 +14215,10 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B441" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C441">
         <v>279</v>
@@ -14238,10 +14238,10 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B442" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C442">
         <v>280</v>
@@ -14261,10 +14261,10 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B443" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C443">
         <v>280</v>
@@ -14284,10 +14284,10 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B444" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C444">
         <v>281</v>
@@ -14307,10 +14307,10 @@
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B445" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C445">
         <v>281</v>
@@ -14330,10 +14330,10 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B446" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C446">
         <v>281</v>
@@ -14353,10 +14353,10 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B447" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C447">
         <v>282</v>
@@ -14376,10 +14376,10 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B448" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C448">
         <v>282</v>
@@ -14399,10 +14399,10 @@
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B449" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C449">
         <v>283</v>
@@ -14422,10 +14422,10 @@
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B450" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C450">
         <v>283</v>
@@ -14445,10 +14445,10 @@
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B451" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C451">
         <v>283</v>
@@ -14468,10 +14468,10 @@
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B452" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C452">
         <v>284</v>
@@ -14491,10 +14491,10 @@
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B453" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C453">
         <v>285</v>
@@ -14514,10 +14514,10 @@
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B454" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C454">
         <v>285</v>
@@ -14537,10 +14537,10 @@
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B455" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C455">
         <v>286</v>
@@ -14560,10 +14560,10 @@
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B456" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C456">
         <v>287</v>
@@ -14583,10 +14583,10 @@
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B457" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C457">
         <v>287</v>
@@ -14606,10 +14606,10 @@
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B458" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C458">
         <v>289</v>
@@ -14629,10 +14629,10 @@
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B459" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C459">
         <v>289</v>
@@ -14652,10 +14652,10 @@
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B460" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C460">
         <v>289</v>
@@ -14675,10 +14675,10 @@
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B461" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C461">
         <v>290</v>
@@ -14698,10 +14698,10 @@
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B462" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C462">
         <v>291</v>
@@ -14721,10 +14721,10 @@
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B463" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C463">
         <v>291</v>
@@ -14744,10 +14744,10 @@
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B464" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C464">
         <v>292</v>
@@ -14767,10 +14767,10 @@
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B465" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C465">
         <v>293</v>
@@ -14790,10 +14790,10 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B466" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="C466">
         <v>294</v>
@@ -14813,10 +14813,10 @@
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B467" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C467">
         <v>295</v>
@@ -14836,10 +14836,10 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B468" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C468">
         <v>295</v>
@@ -14859,10 +14859,10 @@
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B469" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C469">
         <v>296</v>
@@ -14882,10 +14882,10 @@
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B470" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C470">
         <v>297</v>
@@ -14905,10 +14905,10 @@
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B471" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C471">
         <v>297</v>
@@ -14928,10 +14928,10 @@
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B472" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C472">
         <v>298</v>
@@ -14951,10 +14951,10 @@
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B473" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C473">
         <v>299</v>
@@ -14974,10 +14974,10 @@
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B474" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C474">
         <v>299</v>
@@ -14997,10 +14997,10 @@
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B475" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C475">
         <v>300</v>
@@ -15020,10 +15020,10 @@
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B476" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C476">
         <v>301</v>
@@ -15043,10 +15043,10 @@
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B477" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C477">
         <v>302</v>
@@ -15066,10 +15066,10 @@
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B478" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C478">
         <v>302</v>
@@ -15089,10 +15089,10 @@
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B479" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C479">
         <v>303</v>
@@ -15112,10 +15112,10 @@
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B480" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C480">
         <v>303</v>
@@ -15135,10 +15135,10 @@
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B481" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C481">
         <v>304</v>
@@ -15158,10 +15158,10 @@
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B482" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C482">
         <v>305</v>
@@ -15181,10 +15181,10 @@
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B483" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C483">
         <v>305</v>
@@ -15204,10 +15204,10 @@
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="B484" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C484">
         <v>306</v>
@@ -15227,10 +15227,10 @@
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="B485" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C485">
         <v>308</v>
@@ -15250,10 +15250,10 @@
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B486" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C486">
         <v>309</v>
@@ -15273,10 +15273,10 @@
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B487" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C487">
         <v>309</v>
@@ -15296,10 +15296,10 @@
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B488" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C488">
         <v>310</v>
@@ -15319,10 +15319,10 @@
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B489" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C489">
         <v>311</v>
@@ -15342,10 +15342,10 @@
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B490" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C490">
         <v>311</v>
@@ -15365,10 +15365,10 @@
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B491" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C491">
         <v>312</v>
@@ -15388,10 +15388,10 @@
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B492" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C492">
         <v>313</v>
@@ -15411,10 +15411,10 @@
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B493" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C493">
         <v>313</v>
@@ -15434,10 +15434,10 @@
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="B494" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C494">
         <v>313</v>
@@ -15457,10 +15457,10 @@
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B495" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C495">
         <v>314</v>
@@ -15480,10 +15480,10 @@
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B496" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C496">
         <v>314</v>
@@ -15503,10 +15503,10 @@
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B497" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C497">
         <v>315</v>
@@ -15526,10 +15526,10 @@
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B498" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C498">
         <v>315</v>
@@ -15549,10 +15549,10 @@
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="B499" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C499">
         <v>315</v>
@@ -15572,10 +15572,10 @@
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B500" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C500">
         <v>316</v>
@@ -15595,10 +15595,10 @@
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B501" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C501">
         <v>317</v>
@@ -15618,10 +15618,10 @@
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B502" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C502">
         <v>317</v>
@@ -15641,10 +15641,10 @@
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B503" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C503">
         <v>318</v>
@@ -15664,10 +15664,10 @@
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="B504" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="C504">
         <v>319</v>
@@ -15687,10 +15687,10 @@
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B505" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C505">
         <v>320</v>
@@ -15710,10 +15710,10 @@
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B506" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C506">
         <v>321</v>
@@ -15733,10 +15733,10 @@
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B507" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C507">
         <v>322</v>
@@ -15756,10 +15756,10 @@
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B508" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C508">
         <v>322</v>
@@ -15779,10 +15779,10 @@
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B509" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C509">
         <v>324</v>
@@ -15802,10 +15802,10 @@
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B510" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C510">
         <v>325</v>
@@ -15825,10 +15825,10 @@
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B511" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C511">
         <v>325</v>
@@ -15848,10 +15848,10 @@
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B512" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C512">
         <v>326</v>
@@ -15871,10 +15871,10 @@
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B513" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C513">
         <v>326</v>
@@ -15894,10 +15894,10 @@
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B514" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C514">
         <v>327</v>
@@ -15917,10 +15917,10 @@
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B515" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C515">
         <v>328</v>
@@ -15943,7 +15943,7 @@
         <v>332</v>
       </c>
       <c r="B516" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C516">
         <v>329</v>
@@ -15966,7 +15966,7 @@
         <v>332</v>
       </c>
       <c r="B517" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C517">
         <v>329</v>
@@ -15986,10 +15986,10 @@
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B518" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C518">
         <v>330</v>
@@ -16009,10 +16009,10 @@
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B519" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C519">
         <v>330</v>
@@ -16032,10 +16032,10 @@
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B520" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C520">
         <v>331</v>
@@ -16055,10 +16055,10 @@
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B521" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C521">
         <v>331</v>
@@ -16078,10 +16078,10 @@
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B522" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C522">
         <v>332</v>
@@ -16101,10 +16101,10 @@
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B523" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C523">
         <v>333</v>
@@ -16124,10 +16124,10 @@
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B524" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C524">
         <v>334</v>
@@ -16147,10 +16147,10 @@
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B525" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C525">
         <v>336</v>
@@ -16170,10 +16170,10 @@
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B526" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C526">
         <v>337</v>
@@ -16193,10 +16193,10 @@
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B527" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C527">
         <v>337</v>
@@ -16216,10 +16216,10 @@
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B528" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C528">
         <v>337</v>
@@ -16239,10 +16239,10 @@
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B529" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C529">
         <v>338</v>
@@ -16262,10 +16262,10 @@
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B530" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C530">
         <v>339</v>
@@ -16285,10 +16285,10 @@
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B531" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C531">
         <v>340</v>
@@ -16308,10 +16308,10 @@
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B532" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C532">
         <v>341</v>
@@ -16331,10 +16331,10 @@
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B533" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C533">
         <v>342</v>
@@ -16354,10 +16354,10 @@
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B534" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C534">
         <v>343</v>
@@ -16377,10 +16377,10 @@
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B535" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C535">
         <v>344</v>
@@ -16400,10 +16400,10 @@
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B536" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C536">
         <v>345</v>
@@ -16423,10 +16423,10 @@
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B537" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C537">
         <v>346</v>
@@ -16446,10 +16446,10 @@
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B538" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C538">
         <v>347</v>
@@ -16469,10 +16469,10 @@
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B539" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C539">
         <v>348</v>
@@ -16492,10 +16492,10 @@
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B540" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C540">
         <v>349</v>
@@ -16518,7 +16518,7 @@
         <v>286</v>
       </c>
       <c r="B541" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C541">
         <v>350</v>
@@ -16538,10 +16538,10 @@
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B542" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C542">
         <v>351</v>
@@ -16561,10 +16561,10 @@
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B543" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C543">
         <v>352</v>
@@ -16584,10 +16584,10 @@
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B544" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C544">
         <v>353</v>
@@ -16607,10 +16607,10 @@
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B545" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C545">
         <v>354</v>
@@ -16630,10 +16630,10 @@
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B546" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C546">
         <v>355</v>
@@ -16653,10 +16653,10 @@
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B547" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C547">
         <v>356</v>
@@ -16676,10 +16676,10 @@
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B548" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C548">
         <v>357</v>
@@ -16699,10 +16699,10 @@
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B549" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C549">
         <v>358</v>
@@ -16722,10 +16722,10 @@
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B550" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C550">
         <v>359</v>
@@ -16745,10 +16745,10 @@
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B551" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C551">
         <v>360</v>
@@ -16768,10 +16768,10 @@
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B552" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C552">
         <v>361</v>
@@ -16794,7 +16794,7 @@
         <v>17</v>
       </c>
       <c r="B553" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C553">
         <v>362</v>
@@ -16814,10 +16814,10 @@
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="B554" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C554">
         <v>363</v>
@@ -16837,10 +16837,10 @@
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B555" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C555">
         <v>364</v>
@@ -16860,10 +16860,10 @@
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B556" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C556">
         <v>365</v>
@@ -16883,10 +16883,10 @@
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B557" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C557">
         <v>366</v>
@@ -16906,10 +16906,10 @@
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B558" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C558">
         <v>367</v>
@@ -16929,10 +16929,10 @@
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B559" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C559">
         <v>368</v>
@@ -16952,10 +16952,10 @@
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B560" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C560">
         <v>369</v>
@@ -16975,10 +16975,10 @@
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B561" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C561">
         <v>370</v>
@@ -16998,10 +16998,10 @@
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B562" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C562">
         <v>371</v>
@@ -17021,10 +17021,10 @@
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B563" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C563">
         <v>372</v>
@@ -17044,10 +17044,10 @@
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B564" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C564">
         <v>373</v>
@@ -17067,10 +17067,10 @@
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B565" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C565">
         <v>374</v>
@@ -17090,10 +17090,10 @@
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B566" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C566">
         <v>375</v>
@@ -17113,10 +17113,10 @@
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B567" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C567">
         <v>376</v>
@@ -17136,10 +17136,10 @@
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B568" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C568">
         <v>377</v>
@@ -17159,10 +17159,10 @@
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B569" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C569">
         <v>378</v>
@@ -17182,10 +17182,10 @@
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B570" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C570">
         <v>379</v>
@@ -17205,10 +17205,10 @@
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B571" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C571">
         <v>380</v>
@@ -17228,10 +17228,10 @@
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B572" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C572">
         <v>381</v>
@@ -17251,10 +17251,10 @@
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B573" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C573">
         <v>382</v>
@@ -17274,10 +17274,10 @@
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B574" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C574">
         <v>383</v>
@@ -17297,10 +17297,10 @@
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B575" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C575">
         <v>384</v>
@@ -17320,10 +17320,10 @@
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B576" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C576">
         <v>385</v>
@@ -17343,10 +17343,10 @@
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B577" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C577">
         <v>386</v>
@@ -17366,10 +17366,10 @@
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B578" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C578">
         <v>387</v>
@@ -17389,10 +17389,10 @@
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B579" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C579">
         <v>388</v>
@@ -17412,10 +17412,10 @@
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B580" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C580">
         <v>389</v>
@@ -17435,10 +17435,10 @@
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B581" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C581">
         <v>390</v>
@@ -17458,10 +17458,10 @@
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B582" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C582">
         <v>391</v>
@@ -17481,10 +17481,10 @@
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B583" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C583">
         <v>392</v>
@@ -17504,10 +17504,10 @@
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B584" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C584">
         <v>393</v>
@@ -17527,10 +17527,10 @@
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B585" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C585">
         <v>394</v>
@@ -17550,10 +17550,10 @@
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B586" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C586">
         <v>395</v>
@@ -17573,10 +17573,10 @@
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B587" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C587">
         <v>396</v>
@@ -17596,10 +17596,10 @@
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="B588" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="C588">
         <v>397</v>
@@ -17619,10 +17619,10 @@
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B589" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C589">
         <v>398</v>
@@ -17642,10 +17642,10 @@
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B590" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C590">
         <v>399</v>
@@ -17665,10 +17665,10 @@
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B591" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C591">
         <v>400</v>
@@ -17688,10 +17688,10 @@
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B592" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="C592">
         <v>401</v>
@@ -17711,10 +17711,10 @@
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B593" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="C593">
         <v>402</v>
@@ -17734,10 +17734,10 @@
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B594" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C594">
         <v>403</v>
@@ -17757,10 +17757,10 @@
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B595" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C595">
         <v>404</v>
@@ -17780,10 +17780,10 @@
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B596" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C596">
         <v>405</v>
@@ -17803,10 +17803,10 @@
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B597" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C597">
         <v>406</v>
@@ -17826,10 +17826,10 @@
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B598" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C598">
         <v>407</v>
@@ -17849,10 +17849,10 @@
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="B599" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="C599">
         <v>408</v>
@@ -17872,10 +17872,10 @@
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B600" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C600">
         <v>409</v>
@@ -17895,10 +17895,10 @@
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B601" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C601">
         <v>410</v>
@@ -17918,10 +17918,10 @@
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B602" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C602">
         <v>411</v>
@@ -17941,10 +17941,10 @@
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B603" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C603">
         <v>412</v>
@@ -17964,10 +17964,10 @@
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B604" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C604">
         <v>413</v>
@@ -17987,10 +17987,10 @@
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B605" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C605">
         <v>414</v>
@@ -18010,10 +18010,10 @@
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B606" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C606">
         <v>415</v>
@@ -18033,10 +18033,10 @@
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B607" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C607">
         <v>416</v>
@@ -18056,10 +18056,10 @@
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B608" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C608">
         <v>417</v>
@@ -18079,10 +18079,10 @@
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="B609" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C609">
         <v>418</v>
@@ -18102,10 +18102,10 @@
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B610" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C610">
         <v>419</v>
@@ -18125,10 +18125,10 @@
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="B611" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C611">
         <v>420</v>
@@ -18148,10 +18148,10 @@
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B612" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C612">
         <v>421</v>
@@ -18171,10 +18171,10 @@
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="B613" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C613">
         <v>422</v>
@@ -18194,10 +18194,10 @@
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B614" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C614">
         <v>423</v>
@@ -18217,10 +18217,10 @@
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B615" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C615">
         <v>424</v>
@@ -18240,10 +18240,10 @@
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B616" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="C616">
         <v>425</v>
@@ -18263,10 +18263,10 @@
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B617" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C617">
         <v>426</v>
@@ -18286,10 +18286,10 @@
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B618" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C618">
         <v>427</v>
@@ -18309,10 +18309,10 @@
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B619" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="C619">
         <v>428</v>
@@ -18332,10 +18332,10 @@
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="B620" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="C620">
         <v>429</v>
@@ -18355,10 +18355,10 @@
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="B621" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C621">
         <v>430</v>
@@ -18378,10 +18378,10 @@
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B622" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C622">
         <v>431</v>
@@ -18401,10 +18401,10 @@
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B623" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C623">
         <v>432</v>
@@ -18424,10 +18424,10 @@
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B624" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C624">
         <v>433</v>
@@ -18447,10 +18447,10 @@
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B625" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C625">
         <v>434</v>
@@ -18470,10 +18470,10 @@
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B626" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C626">
         <v>435</v>
@@ -18493,10 +18493,10 @@
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B627" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C627">
         <v>436</v>
@@ -18631,10 +18631,10 @@
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B633" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C633">
         <v>440</v>
@@ -18654,10 +18654,10 @@
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B634" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C634">
         <v>441</v>
@@ -18677,10 +18677,10 @@
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B635" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C635">
         <v>443</v>
@@ -18700,10 +18700,10 @@
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B636" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C636">
         <v>444</v>
@@ -18769,7 +18769,7 @@
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B639" t="s">
         <v>211</v>
@@ -18792,10 +18792,10 @@
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B640" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="C640">
         <v>446</v>
@@ -18838,10 +18838,10 @@
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B642" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C642">
         <v>448</v>
@@ -18861,10 +18861,10 @@
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B643" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C643">
         <v>450</v>
@@ -18884,10 +18884,10 @@
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B644" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C644">
         <v>451</v>
@@ -18907,10 +18907,10 @@
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B645" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C645">
         <v>452</v>
@@ -18930,10 +18930,10 @@
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B646" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C646">
         <v>453</v>
@@ -18953,10 +18953,10 @@
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B647" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C647">
         <v>453</v>
@@ -18999,10 +18999,10 @@
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B649" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C649">
         <v>455</v>
@@ -19022,10 +19022,10 @@
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B650" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C650">
         <v>456</v>
@@ -19137,10 +19137,10 @@
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B655" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C655">
         <v>459</v>
@@ -19163,7 +19163,7 @@
         <v>357</v>
       </c>
       <c r="B656" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C656">
         <v>460</v>
@@ -19229,10 +19229,10 @@
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B659" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C659">
         <v>462</v>
@@ -19252,10 +19252,10 @@
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B660" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C660">
         <v>463</v>
@@ -19275,10 +19275,10 @@
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B661" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C661">
         <v>463</v>
@@ -19298,10 +19298,10 @@
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B662" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C662">
         <v>464</v>
@@ -19321,10 +19321,10 @@
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B663" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C663">
         <v>465</v>
@@ -19393,7 +19393,7 @@
         <v>9</v>
       </c>
       <c r="B666" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C666">
         <v>467</v>
@@ -19462,7 +19462,7 @@
         <v>17</v>
       </c>
       <c r="B669" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C669">
         <v>469</v>
@@ -19528,10 +19528,10 @@
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B672" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="C672">
         <v>472</v>
@@ -19643,10 +19643,10 @@
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B677" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C677">
         <v>476</v>

--- a/extra_data/link_log.xlsx
+++ b/extra_data/link_log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susanglenn/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susanglenn/Repositories/gbv-health-provider-study/extra_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B711B0F1-F722-9646-B85C-DC32A9B000AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9428B995-4111-BF4C-9DCB-F753D6DC090B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20640" yWindow="-740" windowWidth="20640" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26420" yWindow="500" windowWidth="26420" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
@@ -3990,9 +3990,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4030,7 +4030,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4136,7 +4136,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4278,7 +4278,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4288,8 +4288,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K677"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A643" workbookViewId="0">
-      <selection activeCell="A670" sqref="A670:XFD670"/>
+    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
+      <selection activeCell="B309" sqref="B309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
